--- a/database/data_to_add/2020_02_18/Applegate_1966_tbl1.xlsx
+++ b/database/data_to_add/2020_02_18/Applegate_1966_tbl1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\2020_02_18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67C4644-2FFB-468F-8188-C105CAD85B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2F4F8-8215-4E53-9442-724C72670BAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,16 +569,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="17" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="BA1" s="3"/>
       <c r="BB1" s="3"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="BA2" s="3"/>
       <c r="BB2" s="3"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -870,7 +870,9 @@
       <c r="V3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3">
+        <v>2</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3"/>
@@ -910,7 +912,7 @@
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -969,7 +971,9 @@
       <c r="V4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
@@ -1005,7 +1009,7 @@
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1064,7 +1068,9 @@
       <c r="V5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3">
+        <v>4</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
@@ -1100,7 +1106,7 @@
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1159,7 +1165,9 @@
       <c r="V6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3">
+        <v>5</v>
+      </c>
       <c r="Y6" s="3">
         <v>10</v>
       </c>
@@ -1213,7 +1221,7 @@
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1272,7 +1280,9 @@
       <c r="V7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3">
+        <v>6</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="1" t="s">
         <v>27</v>
@@ -1324,7 +1334,7 @@
       <c r="BA7" s="3"/>
       <c r="BB7" s="2"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1383,7 +1393,9 @@
       <c r="V8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3">
+        <v>7</v>
+      </c>
       <c r="Y8" s="2">
         <v>50</v>
       </c>
@@ -1419,7 +1431,7 @@
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1478,7 +1490,9 @@
       <c r="V9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3">
+        <v>8</v>
+      </c>
       <c r="Y9" s="2">
         <v>38</v>
       </c>
@@ -1520,7 +1534,7 @@
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1576,7 +1590,9 @@
       <c r="V10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3">
+        <v>9</v>
+      </c>
       <c r="Y10" s="3">
         <v>56</v>
       </c>
@@ -1620,7 +1636,7 @@
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1692,9 @@
       <c r="V11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3">
+        <v>10</v>
+      </c>
       <c r="Y11" s="3">
         <v>29</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1785,9 @@
       <c r="V12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="3"/>
+      <c r="W12" s="3">
+        <v>11</v>
+      </c>
       <c r="Y12" s="3">
         <v>16</v>
       </c>
@@ -1798,7 +1818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1853,7 +1873,9 @@
       <c r="V13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3">
+        <v>12</v>
+      </c>
       <c r="Y13" s="3">
         <v>6</v>
       </c>
@@ -1888,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1943,7 +1965,9 @@
       <c r="V14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="3">
+        <v>13</v>
+      </c>
       <c r="Y14" s="3">
         <v>99</v>
       </c>
@@ -1964,7 +1988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -2019,7 +2043,9 @@
       <c r="V15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W15" s="3"/>
+      <c r="W15" s="3">
+        <v>14</v>
+      </c>
       <c r="Y15" s="3">
         <v>93</v>
       </c>
@@ -2052,7 +2078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -2107,7 +2133,9 @@
       <c r="V16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W16" s="3"/>
+      <c r="W16" s="3">
+        <v>15</v>
+      </c>
       <c r="Y16" s="3">
         <v>85</v>
       </c>
@@ -2138,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -2190,7 +2218,9 @@
       <c r="V17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W17" s="3"/>
+      <c r="W17" s="3">
+        <v>16</v>
+      </c>
       <c r="Y17" s="3">
         <v>88</v>
       </c>
@@ -2213,7 +2243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -2265,7 +2295,9 @@
       <c r="V18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="3"/>
+      <c r="W18" s="3">
+        <v>17</v>
+      </c>
       <c r="Y18" s="3">
         <v>94</v>
       </c>
@@ -2286,7 +2318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -2338,7 +2370,9 @@
       <c r="V19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3">
+        <v>18</v>
+      </c>
       <c r="Y19" s="3">
         <v>91</v>
       </c>
@@ -2357,10 +2391,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
   </sheetData>
